--- a/inst/extdata/fsmglobal.xlsx
+++ b/inst/extdata/fsmglobal.xlsx
@@ -3830,10 +3830,10 @@
         <v>0.409915289722557</v>
       </c>
       <c r="H88" t="n">
-        <v>0.691656089074971</v>
+        <v>0.69165608907497</v>
       </c>
       <c r="I88" t="n">
-        <v>0.308343910925029</v>
+        <v>0.30834391092503</v>
       </c>
     </row>
     <row r="89">
@@ -4604,7 +4604,7 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>8251165.61119261</v>
+        <v>8251165.6111926</v>
       </c>
       <c r="E118" t="n">
         <v>200762.3913567</v>
@@ -5818,7 +5818,7 @@
         <v>190886295.597586</v>
       </c>
       <c r="E161" t="n">
-        <v>8652232.91899559</v>
+        <v>8652232.9189956</v>
       </c>
       <c r="F161" t="n">
         <v>1338835.9522415</v>
@@ -6971,7 +6971,7 @@
         <v>53370580.7058784</v>
       </c>
       <c r="E202" t="n">
-        <v>31290993.7396651</v>
+        <v>31290993.739665</v>
       </c>
       <c r="F202" t="n">
         <v>6785749.29595473</v>
@@ -9399,7 +9399,7 @@
         <v>360</v>
       </c>
       <c r="D293" t="n">
-        <v>8251165.61119261</v>
+        <v>8251165.6111926</v>
       </c>
       <c r="E293" t="n">
         <v>730818.3421533</v>
@@ -9799,7 +9799,7 @@
         <v>105088.489893525</v>
       </c>
       <c r="F307" t="n">
-        <v>20771.4426384991</v>
+        <v>20771.442638499</v>
       </c>
       <c r="G307" t="n">
         <v>0.19233307929111</v>
@@ -13594,7 +13594,7 @@
         <v>12481434.03813</v>
       </c>
       <c r="F448" t="n">
-        <v>1940331.72539639</v>
+        <v>1940331.7253964</v>
       </c>
       <c r="G448" t="n">
         <v>0.307930045752692</v>
@@ -13684,7 +13684,7 @@
         <v>353119.011597413</v>
       </c>
       <c r="G451" t="n">
-        <v>0.0180376371528551</v>
+        <v>0.018037637152855</v>
       </c>
       <c r="H451" t="n">
         <v>0</v>
@@ -14078,7 +14078,7 @@
         <v>361</v>
       </c>
       <c r="D468" t="n">
-        <v>8251165.61119261</v>
+        <v>8251165.6111926</v>
       </c>
       <c r="E468" t="n">
         <v>5802136.89479</v>
@@ -15094,10 +15094,10 @@
         <v>0.386174476485987</v>
       </c>
       <c r="H504" t="n">
-        <v>0.177456595438851</v>
+        <v>0.17745659543885</v>
       </c>
       <c r="I504" t="n">
-        <v>0.822543404561149</v>
+        <v>0.82254340456115</v>
       </c>
     </row>
     <row r="505">
@@ -18773,7 +18773,7 @@
         <v>362</v>
       </c>
       <c r="D643" t="n">
-        <v>8251165.61119261</v>
+        <v>8251165.6111926</v>
       </c>
       <c r="E643" t="n">
         <v>1193854.75167</v>
